--- a/table.xlsx
+++ b/table.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZP6177\Creative Cloud Files\Programmation\C#\Ineo Infracom\Myexpenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AEA671D-8C13-4142-9454-89F24895420E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2274A5E-A990-477D-99CD-3BD2E0EE6575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24804" yWindow="8208" windowWidth="23040" windowHeight="12204" xr2:uid="{3C8728D4-4D3D-4C35-A3FE-37BAB581B7CE}"/>
+    <workbookView xWindow="-28044" yWindow="2496" windowWidth="23040" windowHeight="12204" xr2:uid="{3C8728D4-4D3D-4C35-A3FE-37BAB581B7CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Exemple" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
   <si>
     <t>pk</t>
   </si>
@@ -58,9 +59,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>fk_lieu</t>
-  </si>
-  <si>
     <t>t_compte</t>
   </si>
   <si>
@@ -104,6 +102,63 @@
   </si>
   <si>
     <t>t_type_depense</t>
+  </si>
+  <si>
+    <t>t_type_fk</t>
+  </si>
+  <si>
+    <t>t_credit</t>
+  </si>
+  <si>
+    <t>recurance</t>
+  </si>
+  <si>
+    <t>t_credit_fk</t>
+  </si>
+  <si>
+    <t>t_type_recurence</t>
+  </si>
+  <si>
+    <t>t_type_recurence_fk</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>raison</t>
+  </si>
+  <si>
+    <t>jour</t>
+  </si>
+  <si>
+    <t>mois</t>
+  </si>
+  <si>
+    <t>carte</t>
+  </si>
+  <si>
+    <t>virement</t>
+  </si>
+  <si>
+    <t>test trop bien</t>
+  </si>
+  <si>
+    <t>pokemart</t>
+  </si>
+  <si>
+    <t>chemin</t>
+  </si>
+  <si>
+    <t>bordeaux</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>15477211kfgf</t>
+  </si>
+  <si>
+    <t>yolo</t>
   </si>
 </sst>
 </file>
@@ -119,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,8 +193,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,25 +220,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -474,142 +581,504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308B6434-A4D7-4BAC-9CEC-2A04A709C66A}">
-  <dimension ref="B2:Q8"/>
+  <dimension ref="B2:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="1"/>
+      <c r="J2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="K4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="K7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="M10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J2:R2"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="J6:P6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7701AA24-EFAD-450B-A475-75336F589FB1}">
+  <dimension ref="B2:R12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="J2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
+      <c r="R3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="F4" s="11">
+        <v>44847</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2">
+        <v>10</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="2">
+        <v>33000</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>44847</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="F5" s="11">
+        <v>44878</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="K7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2</v>
+      </c>
+      <c r="O8" s="8">
+        <v>2</v>
+      </c>
+      <c r="P8" s="2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="M10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="I7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="I8" t="s">
-        <v>10</v>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:Q2"/>
+  <mergeCells count="5">
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="J2:R2"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZP6177\Creative Cloud Files\Programmation\C#\Ineo Infracom\Myexpenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2274A5E-A990-477D-99CD-3BD2E0EE6575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD26E18-9D8D-4101-B1BA-9ACFAE34017C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28044" yWindow="2496" windowWidth="23040" windowHeight="12204" xr2:uid="{3C8728D4-4D3D-4C35-A3FE-37BAB581B7CE}"/>
+    <workbookView xWindow="-28044" yWindow="2496" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{3C8728D4-4D3D-4C35-A3FE-37BAB581B7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="45">
   <si>
     <t>pk</t>
   </si>
@@ -159,6 +159,18 @@
   </si>
   <si>
     <t>yolo</t>
+  </si>
+  <si>
+    <t>t_type_payement</t>
+  </si>
+  <si>
+    <t>t_type_payement_fk</t>
+  </si>
+  <si>
+    <t>t_type_categorie</t>
+  </si>
+  <si>
+    <t>Jeux vidéo</t>
   </si>
 </sst>
 </file>
@@ -174,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +223,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -239,29 +257,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,238 +603,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308B6434-A4D7-4BAC-9CEC-2A04A709C66A}">
-  <dimension ref="B2:R12"/>
+  <dimension ref="B2:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="J2" s="6" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="K2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="J6" s="7" t="s">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="J7" s="2" t="s">
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="N7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="P7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="J8" s="2" t="s">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="P8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="J10" s="9" t="s">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="M10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="J11" s="2" t="s">
+      <c r="L10" s="7"/>
+      <c r="N10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="J12" s="2" t="s">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J2:R2"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="J6:P6"/>
+  <mergeCells count="6">
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K6:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -821,264 +873,297 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7701AA24-EFAD-450B-A475-75336F589FB1}">
-  <dimension ref="B2:R12"/>
+  <dimension ref="B2:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="J2" s="6" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="K2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="G4" s="6">
+        <v>44847</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="1">
+        <v>10</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="1">
+        <v>33000</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="6">
+        <v>44847</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="G5" s="6">
+        <v>44878</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="O7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="F4" s="11">
-        <v>44847</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="2">
-        <v>10</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="2">
-        <v>33000</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>44847</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="F5" s="11">
-        <v>44878</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="J6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="J7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-      <c r="K8" s="4">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2" t="s">
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2</v>
       </c>
       <c r="N8" s="2">
         <v>2</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="1">
         <v>2</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="1">
         <v>10.5</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="J10" s="9" t="s">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="M10" s="10" t="s">
+      <c r="L10" s="7"/>
+      <c r="N10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="2">
-        <v>1</v>
-      </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="J12" s="2">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K12" s="1">
         <v>2</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="1">
         <v>2</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="J2:R2"/>
-    <mergeCell ref="B2:H2"/>
+  <mergeCells count="6">
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZP6177\Creative Cloud Files\Programmation\C#\Ineo Infracom\Myexpenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD26E18-9D8D-4101-B1BA-9ACFAE34017C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4BB228-6854-455E-BDFA-F3A814F8E268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28044" yWindow="2496" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{3C8728D4-4D3D-4C35-A3FE-37BAB581B7CE}"/>
+    <workbookView xWindow="-26688" yWindow="2928" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{3C8728D4-4D3D-4C35-A3FE-37BAB581B7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="48">
   <si>
     <t>pk</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>Jeux vidéo</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>t_ticket</t>
+  </si>
+  <si>
+    <t>je suis un chemin accès</t>
   </si>
 </sst>
 </file>
@@ -186,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +238,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -257,33 +272,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,268 +638,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308B6434-A4D7-4BAC-9CEC-2A04A709C66A}">
-  <dimension ref="B2:S16"/>
+  <dimension ref="B2:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B2:I3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="K2" s="8" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K6" s="11" t="s">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K7" s="1" t="s">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="Q7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K8" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="Q8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K10" s="7" t="s">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="N10" s="9" t="s">
+      <c r="M10" s="7"/>
+      <c r="O10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="9"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K11" s="1" t="s">
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K12" s="1" t="s">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K14" s="12" t="s">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K15" s="1" t="s">
+      <c r="M14" s="8"/>
+      <c r="O14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K16" s="1" t="s">
+      <c r="O15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="O16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="K6:Q6"/>
+  <mergeCells count="7">
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="O14:P14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -873,297 +932,324 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7701AA24-EFAD-450B-A475-75336F589FB1}">
-  <dimension ref="B2:S16"/>
+  <dimension ref="B2:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="K2" s="8" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="13">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
         <v>2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>10.5</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="15">
         <v>44847</v>
       </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+      <c r="J4" s="13">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="3">
         <v>10</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="3">
         <v>33000</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="6">
+      <c r="S4" s="15">
         <v>44847</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="13">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
         <v>2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>10.5</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="15">
         <v>44878</v>
       </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K6" s="11" t="s">
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1</v>
+      </c>
+      <c r="J5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K7" s="1" t="s">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="Q7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="L8" s="3">
         <v>1</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="5">
         <v>2</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="3">
         <v>2</v>
       </c>
-      <c r="P8" s="5">
+      <c r="Q8" s="6">
         <v>2</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="3">
         <v>10.5</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K10" s="7" t="s">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="N10" s="9" t="s">
+      <c r="M10" s="7"/>
+      <c r="O10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="9"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1" t="s">
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N11" s="1">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K12" s="1">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L12" s="3">
         <v>2</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="3">
         <v>2</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K14" s="12" t="s">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K15" s="1" t="s">
+      <c r="M14" s="8"/>
+      <c r="O14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K16" s="1">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1" t="s">
+      <c r="O15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K2:S2"/>
+  <mergeCells count="7">
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="O14:P14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
